--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gene\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gene\Desktop\Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19575" windowHeight="9795" tabRatio="928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435" tabRatio="928" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Drives" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="61">
   <si>
     <t>PLAYER</t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t>KCP</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
+  </si>
+  <si>
+    <t>Johnathan Williams</t>
+  </si>
+  <si>
+    <t>Svi Mykhailiuk</t>
   </si>
 </sst>
 </file>
@@ -556,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,6 +2140,1623 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Y21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>50</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>75</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26">
+        <v>66.7</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>22.2</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>22.2</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>11.1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Y26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>60</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>60</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>20</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>43</v>
+      </c>
+      <c r="G28">
+        <v>21</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>37.5</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>100</v>
+      </c>
+      <c r="N28">
+        <v>8</v>
+      </c>
+      <c r="O28">
+        <v>38.1</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>9.5</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>9.5</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>4.8</v>
+      </c>
+      <c r="X28" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Y28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>50</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Y29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>100</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Y30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>17</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>100</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Y31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Y32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>200</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Y33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Y34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>100</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Y35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <v>66.7</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Y36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>16.7</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>16.7</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Y37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>60</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>100</v>
+      </c>
+      <c r="N38">
+        <v>8</v>
+      </c>
+      <c r="O38">
+        <v>66.7</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>16.7</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="X38" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Y38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>28</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>50</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <v>80</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>20</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Y39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>28</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>66.7</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Y40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>22</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Y41">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2139,10 +3765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,7 +3782,7 @@
     <col min="7" max="7" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2189,7 +3815,7 @@
       <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -2233,7 +3859,7 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>4</v>
       </c>
       <c r="K2" s="2">
@@ -2277,7 +3903,7 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="2">
@@ -2321,7 +3947,7 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>2</v>
       </c>
       <c r="K4" s="2">
@@ -2365,7 +3991,7 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="2">
@@ -2409,7 +4035,7 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>5</v>
       </c>
       <c r="K6" s="2">
@@ -2453,7 +4079,7 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>2</v>
       </c>
       <c r="K7" s="2">
@@ -2497,7 +4123,7 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="2">
@@ -2541,7 +4167,7 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="2">
@@ -2585,7 +4211,7 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -2629,7 +4255,7 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="2">
@@ -2673,7 +4299,7 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="2">
@@ -2717,7 +4343,7 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -2761,7 +4387,7 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>4</v>
       </c>
       <c r="K14" s="2">
@@ -2805,7 +4431,7 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>3</v>
       </c>
       <c r="K15" s="2">
@@ -2849,7 +4475,7 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>5</v>
       </c>
       <c r="K16" s="2">
@@ -2893,7 +4519,7 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="2">
@@ -2937,7 +4563,7 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>2</v>
       </c>
       <c r="K18" s="2">
@@ -2981,7 +4607,7 @@
       <c r="I19">
         <v>2</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>4</v>
       </c>
       <c r="K19" s="2">
@@ -3025,7 +4651,7 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="2">
@@ -3039,6 +4665,930 @@
       </c>
       <c r="N20">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>43395</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>43395</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>43395</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>40</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="2">
+        <v>40</v>
+      </c>
+      <c r="L24">
+        <v>60</v>
+      </c>
+      <c r="M24" s="1">
+        <v>43395</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>43395</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>45</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>44.4</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" s="2">
+        <v>9</v>
+      </c>
+      <c r="K26" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="L26">
+        <v>66.7</v>
+      </c>
+      <c r="M26" s="1">
+        <v>43395</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>43395</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>66.7</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>66.7</v>
+      </c>
+      <c r="M28" s="1">
+        <v>43395</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>50</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29" s="2">
+        <v>6</v>
+      </c>
+      <c r="K29" s="2">
+        <v>50</v>
+      </c>
+      <c r="L29">
+        <v>75</v>
+      </c>
+      <c r="M29" s="1">
+        <v>43395</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>43395</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>43395</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>43397</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>50</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+      <c r="K33" s="2">
+        <v>50</v>
+      </c>
+      <c r="L33">
+        <v>62.5</v>
+      </c>
+      <c r="M33" s="1">
+        <v>43397</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
+      </c>
+      <c r="M34" s="1">
+        <v>43397</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>75</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35" s="2">
+        <v>4</v>
+      </c>
+      <c r="K35" s="2">
+        <v>75</v>
+      </c>
+      <c r="L35">
+        <v>112.5</v>
+      </c>
+      <c r="M35" s="1">
+        <v>43397</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>33</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>66.7</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+      <c r="K36" s="2">
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <v>83.3</v>
+      </c>
+      <c r="M36" s="1">
+        <v>43397</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>29</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>25</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>25</v>
+      </c>
+      <c r="M37" s="1">
+        <v>43397</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>25</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>43397</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>66.7</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>2</v>
+      </c>
+      <c r="K39" s="2">
+        <v>50</v>
+      </c>
+      <c r="L39">
+        <v>83.3</v>
+      </c>
+      <c r="M39" s="1">
+        <v>43397</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>28</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>50</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2</v>
+      </c>
+      <c r="K40" s="2">
+        <v>50</v>
+      </c>
+      <c r="L40">
+        <v>75</v>
+      </c>
+      <c r="M40" s="1">
+        <v>43397</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>50</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>2</v>
+      </c>
+      <c r="K41" s="2">
+        <v>50</v>
+      </c>
+      <c r="L41">
+        <v>75</v>
+      </c>
+      <c r="M41" s="1">
+        <v>43397</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3049,10 +5599,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,7 +5619,7 @@
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -3113,7 +5663,7 @@
       <c r="L1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="N1" t="s">
@@ -3166,7 +5716,7 @@
       <c r="L2">
         <v>2</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>1</v>
       </c>
       <c r="N2">
@@ -3219,7 +5769,7 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3">
@@ -3272,7 +5822,7 @@
       <c r="L4">
         <v>2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>1</v>
       </c>
       <c r="N4">
@@ -3325,7 +5875,7 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5">
@@ -3378,7 +5928,7 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6">
@@ -3431,7 +5981,7 @@
       <c r="L7">
         <v>2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>1</v>
       </c>
       <c r="N7">
@@ -3484,7 +6034,7 @@
       <c r="L8">
         <v>9</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>4</v>
       </c>
       <c r="N8">
@@ -3537,7 +6087,7 @@
       <c r="L9">
         <v>2</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <v>2</v>
       </c>
       <c r="N9">
@@ -3590,7 +6140,7 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10">
@@ -3643,7 +6193,7 @@
       <c r="L11">
         <v>18</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
         <v>8</v>
       </c>
       <c r="N11">
@@ -3696,7 +6246,7 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="2">
         <v>1</v>
       </c>
       <c r="N12">
@@ -3749,7 +6299,7 @@
       <c r="L13">
         <v>4</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="2">
         <v>2</v>
       </c>
       <c r="N13">
@@ -3802,7 +6352,7 @@
       <c r="L14">
         <v>5</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="2">
         <v>2</v>
       </c>
       <c r="N14">
@@ -3855,7 +6405,7 @@
       <c r="L15">
         <v>4</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="2">
         <v>3</v>
       </c>
       <c r="N15">
@@ -3908,7 +6458,7 @@
       <c r="L16">
         <v>5</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
         <v>2</v>
       </c>
       <c r="N16">
@@ -3961,7 +6511,7 @@
       <c r="L17">
         <v>5</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="2">
         <v>3</v>
       </c>
       <c r="N17">
@@ -4014,7 +6564,7 @@
       <c r="L18">
         <v>8</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <v>4</v>
       </c>
       <c r="N18">
@@ -4067,7 +6617,7 @@
       <c r="L19">
         <v>8</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="2">
         <v>4</v>
       </c>
       <c r="N19">
@@ -4120,7 +6670,7 @@
       <c r="L20">
         <v>17</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="2">
         <v>9</v>
       </c>
       <c r="N20">
@@ -4134,6 +6684,1119 @@
       </c>
       <c r="Q20">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>4.3</v>
+      </c>
+      <c r="O22">
+        <v>4.3</v>
+      </c>
+      <c r="P22" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>9.1</v>
+      </c>
+      <c r="O23">
+        <v>9.1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <v>34</v>
+      </c>
+      <c r="H24">
+        <v>29</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>2.9</v>
+      </c>
+      <c r="O24">
+        <v>5.9</v>
+      </c>
+      <c r="P24" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <v>37</v>
+      </c>
+      <c r="H26">
+        <v>41</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26" s="2">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>8.1</v>
+      </c>
+      <c r="O26">
+        <v>10.8</v>
+      </c>
+      <c r="P26" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>28</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27" s="2">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>16</v>
+      </c>
+      <c r="O27">
+        <v>16</v>
+      </c>
+      <c r="P27" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>43</v>
+      </c>
+      <c r="G28">
+        <v>64</v>
+      </c>
+      <c r="H28">
+        <v>88</v>
+      </c>
+      <c r="I28">
+        <v>14</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>24</v>
+      </c>
+      <c r="L28">
+        <v>35</v>
+      </c>
+      <c r="M28" s="2">
+        <v>15</v>
+      </c>
+      <c r="N28">
+        <v>21.9</v>
+      </c>
+      <c r="O28">
+        <v>23.4</v>
+      </c>
+      <c r="P28" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>57</v>
+      </c>
+      <c r="H29">
+        <v>48</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>12</v>
+      </c>
+      <c r="L29">
+        <v>11</v>
+      </c>
+      <c r="M29" s="2">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>10.5</v>
+      </c>
+      <c r="O29">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P29" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>17</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31" s="2">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="O31">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="P31" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>20</v>
+      </c>
+      <c r="O32">
+        <v>20</v>
+      </c>
+      <c r="P32" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33" s="2">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="O33">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P33" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>13</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>6</v>
+      </c>
+      <c r="M35" s="2">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>16.7</v>
+      </c>
+      <c r="O35">
+        <v>25</v>
+      </c>
+      <c r="P35" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>25</v>
+      </c>
+      <c r="H36">
+        <v>28</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36" s="2">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <v>8</v>
+      </c>
+      <c r="P36" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>27</v>
+      </c>
+      <c r="H37">
+        <v>29</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>3.7</v>
+      </c>
+      <c r="O37">
+        <v>3.7</v>
+      </c>
+      <c r="P37" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>45</v>
+      </c>
+      <c r="H38">
+        <v>46</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>14</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
+      <c r="M38" s="2">
+        <v>8</v>
+      </c>
+      <c r="N38">
+        <v>17.8</v>
+      </c>
+      <c r="O38">
+        <v>17.8</v>
+      </c>
+      <c r="P38" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>28</v>
+      </c>
+      <c r="G39">
+        <v>42</v>
+      </c>
+      <c r="H39">
+        <v>48</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>15</v>
+      </c>
+      <c r="L39">
+        <v>25</v>
+      </c>
+      <c r="M39" s="2">
+        <v>11</v>
+      </c>
+      <c r="N39">
+        <v>23.8</v>
+      </c>
+      <c r="O39">
+        <v>26.2</v>
+      </c>
+      <c r="P39" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Q39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>28</v>
+      </c>
+      <c r="G40">
+        <v>44</v>
+      </c>
+      <c r="H40">
+        <v>36</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <v>14</v>
+      </c>
+      <c r="M40" s="2">
+        <v>8</v>
+      </c>
+      <c r="N40">
+        <v>13.6</v>
+      </c>
+      <c r="O40">
+        <v>18.2</v>
+      </c>
+      <c r="P40" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>22</v>
+      </c>
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="H41">
+        <v>14</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41" s="2">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>18.2</v>
+      </c>
+      <c r="O41">
+        <v>18.2</v>
+      </c>
+      <c r="P41" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4143,10 +7806,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5169,6 +8832,1056 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>60</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="N24">
+        <v>80</v>
+      </c>
+      <c r="O24" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
+      </c>
+      <c r="N27">
+        <v>150</v>
+      </c>
+      <c r="O27" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>43</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>38.5</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>28.6</v>
+      </c>
+      <c r="N28">
+        <v>46.2</v>
+      </c>
+      <c r="O28" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>17</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>50</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>50</v>
+      </c>
+      <c r="N35">
+        <v>75</v>
+      </c>
+      <c r="O35" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>20</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>20</v>
+      </c>
+      <c r="O36" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>50</v>
+      </c>
+      <c r="N38">
+        <v>58.3</v>
+      </c>
+      <c r="O38" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>28</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>16.7</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>16.7</v>
+      </c>
+      <c r="O39" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>28</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>22</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P41">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5176,10 +9889,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6202,6 +10915,1056 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>50</v>
+      </c>
+      <c r="N21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O21" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>37.5</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>88.9</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>88.9</v>
+      </c>
+      <c r="N22">
+        <v>6.1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>75</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>57.1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>57.1</v>
+      </c>
+      <c r="N23">
+        <v>4.2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>83.3</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>83.3</v>
+      </c>
+      <c r="N24">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O24" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>100</v>
+      </c>
+      <c r="N25">
+        <v>6.4</v>
+      </c>
+      <c r="O25" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>14</v>
+      </c>
+      <c r="K26">
+        <v>57.1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>57.1</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>50</v>
+      </c>
+      <c r="N27">
+        <v>2.8</v>
+      </c>
+      <c r="O27" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>43</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>37.5</v>
+      </c>
+      <c r="J28">
+        <v>13</v>
+      </c>
+      <c r="K28">
+        <v>61.5</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>66.7</v>
+      </c>
+      <c r="N28">
+        <v>10.4</v>
+      </c>
+      <c r="O28" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>85.7</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>85.7</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>50</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <v>4.5</v>
+      </c>
+      <c r="O30" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>17</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>66.7</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>66.7</v>
+      </c>
+      <c r="N31">
+        <v>11.7</v>
+      </c>
+      <c r="O31" s="1">
+        <v>43395</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>50</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>66.7</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>66.7</v>
+      </c>
+      <c r="N32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O32" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>50</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>60</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>66.7</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="O33" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>60</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="N34">
+        <v>5.7</v>
+      </c>
+      <c r="O34" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="N35">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O35" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>28.6</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>28.6</v>
+      </c>
+      <c r="N36">
+        <v>6.9</v>
+      </c>
+      <c r="O36" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>66.7</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>80</v>
+      </c>
+      <c r="N37">
+        <v>6.6</v>
+      </c>
+      <c r="O37" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>12.5</v>
+      </c>
+      <c r="J38">
+        <v>13</v>
+      </c>
+      <c r="K38">
+        <v>61.5</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>61.5</v>
+      </c>
+      <c r="N38">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O38" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>28</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>14.3</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>87.5</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>87.5</v>
+      </c>
+      <c r="N39">
+        <v>12</v>
+      </c>
+      <c r="O39" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>28</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>14.3</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+      <c r="K40">
+        <v>63.6</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>70</v>
+      </c>
+      <c r="N40">
+        <v>7.4</v>
+      </c>
+      <c r="O40" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>22</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>43397</v>
+      </c>
+      <c r="P41">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6209,10 +11972,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y9:Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7844,6 +13607,1686 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Z21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>39</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Z22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Z23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>50</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <v>65</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>50</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Z26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>34</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Z27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>43</v>
+      </c>
+      <c r="G28">
+        <v>103</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>66.7</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>100</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>20</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>20</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Z28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>68</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Z29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>100</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Z30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>17</v>
+      </c>
+      <c r="G31">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>43395</v>
+      </c>
+      <c r="Z31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Z32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <v>39</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>200</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Z33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>25</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Z34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Z35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>42</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Z36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>46</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Z37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>64</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Z38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>28</v>
+      </c>
+      <c r="G39">
+        <v>61</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>100</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Z39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>28</v>
+      </c>
+      <c r="G40">
+        <v>58</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>100</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Z40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>22</v>
+      </c>
+      <c r="G41">
+        <v>19</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>43397</v>
+      </c>
+      <c r="Z41">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
